--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value33.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value33.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9266409036991102</v>
+        <v>2.197608709335327</v>
       </c>
       <c r="B1">
-        <v>0.9727881526186813</v>
+        <v>2.760985136032104</v>
       </c>
       <c r="C1">
-        <v>1.089175501278119</v>
+        <v>3.672125577926636</v>
       </c>
       <c r="D1">
-        <v>1.677579112302462</v>
+        <v>5.812647819519043</v>
       </c>
       <c r="E1">
-        <v>3.506400215335575</v>
+        <v>2.125693559646606</v>
       </c>
     </row>
   </sheetData>
